--- a/log_history/Y5_B2425_Pediatrics_scanner1757153058433_b238c595b84321b35b8e57610c49523d4e3b9b5b5d090923e9e54f4b929bedba.xlsx
+++ b/log_history/Y5_B2425_Pediatrics_scanner1757153058433_b238c595b84321b35b8e57610c49523d4e3b9b5b5d090923e9e54f4b929bedba.xlsx
@@ -433,7 +433,7 @@
         <v>06/09/2025</v>
       </c>
       <c r="D2" t="str">
-        <v>13:04:38</v>
+        <v>12:04:38</v>
       </c>
       <c r="E2" t="str">
         <v>Manual</v>
